--- a/artfynd/A 30671-2023.xlsx
+++ b/artfynd/A 30671-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111416523</v>
+        <v>111416526</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>359100.0376043977</v>
+        <v>359094.3997885482</v>
       </c>
       <c r="R2" t="n">
-        <v>6393214.610374114</v>
+        <v>6393206.775113393</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>även bladrosetter på 1 kvm</t>
+          <t>även ca 30 bladrosetter</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -811,7 +811,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111416521</v>
+        <v>111416525</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -846,7 +846,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>359101.3469427949</v>
+        <v>359095.1406046218</v>
       </c>
       <c r="R3" t="n">
-        <v>6393205.997596246</v>
+        <v>6393212.639220579</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>även ca 30 bladrosetter</t>
+          <t>även bladrosetter på 1 kvm</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -942,7 +942,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111416525</v>
+        <v>111416521</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -977,7 +977,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>359095.1406046218</v>
+        <v>359101.3469427949</v>
       </c>
       <c r="R4" t="n">
-        <v>6393212.639220579</v>
+        <v>6393205.997596246</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>även bladrosetter på 1 kvm</t>
+          <t>även ca 30 bladrosetter</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1194,7 +1194,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111416526</v>
+        <v>111416523</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1248,10 +1248,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>359094.3997885482</v>
+        <v>359100.0376043977</v>
       </c>
       <c r="R6" t="n">
-        <v>6393206.775113393</v>
+        <v>6393214.610374114</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>även ca 30 bladrosetter</t>
+          <t>även bladrosetter på 1 kvm</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 30671-2023.xlsx
+++ b/artfynd/A 30671-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111416526</v>
+        <v>111416525</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>359094.3997885482</v>
+        <v>359095.1406046218</v>
       </c>
       <c r="R2" t="n">
-        <v>6393206.775113393</v>
+        <v>6393212.639220579</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>även ca 30 bladrosetter</t>
+          <t>även bladrosetter på 1 kvm</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -811,7 +811,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111416525</v>
+        <v>111416528</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -846,17 +846,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>blomning</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -865,10 +860,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>359095.1406046218</v>
+        <v>359092.1819271583</v>
       </c>
       <c r="R3" t="n">
-        <v>6393212.639220579</v>
+        <v>6393204.710604292</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -911,11 +906,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>även bladrosetter på 1 kvm</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -942,7 +932,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111416521</v>
+        <v>111416526</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -996,10 +986,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>359101.3469427949</v>
+        <v>359094.3997885482</v>
       </c>
       <c r="R4" t="n">
-        <v>6393205.997596246</v>
+        <v>6393206.775113393</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1073,7 +1063,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111416528</v>
+        <v>111416521</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1108,12 +1098,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>blomning</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1122,10 +1117,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>359092.1819271583</v>
+        <v>359101.3469427949</v>
       </c>
       <c r="R5" t="n">
-        <v>6393204.710604292</v>
+        <v>6393205.997596246</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1168,6 +1163,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>även ca 30 bladrosetter</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 30671-2023.xlsx
+++ b/artfynd/A 30671-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111416525</v>
+        <v>111416528</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,17 +715,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomning</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -734,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>359095.1406046218</v>
+        <v>359092.1819271583</v>
       </c>
       <c r="R2" t="n">
-        <v>6393212.639220579</v>
+        <v>6393204.710604292</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -780,11 +775,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>även bladrosetter på 1 kvm</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -811,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111416528</v>
+        <v>111416525</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -846,12 +836,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>blomning</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -860,10 +855,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>359092.1819271583</v>
+        <v>359095.1406046218</v>
       </c>
       <c r="R3" t="n">
-        <v>6393204.710604292</v>
+        <v>6393212.639220579</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,6 +901,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>även bladrosetter på 1 kvm</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -932,7 +932,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111416526</v>
+        <v>111416521</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>359094.3997885482</v>
+        <v>359101.3469427949</v>
       </c>
       <c r="R4" t="n">
-        <v>6393206.775113393</v>
+        <v>6393205.997596246</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111416521</v>
+        <v>111416526</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1117,10 +1117,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>359101.3469427949</v>
+        <v>359094.3997885482</v>
       </c>
       <c r="R5" t="n">
-        <v>6393205.997596246</v>
+        <v>6393206.775113393</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 30671-2023.xlsx
+++ b/artfynd/A 30671-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111416528</v>
+        <v>111416523</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,12 +715,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blomning</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -729,10 +734,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>359092.1819271583</v>
+        <v>359100.0376043977</v>
       </c>
       <c r="R2" t="n">
-        <v>6393204.710604292</v>
+        <v>6393214.610374114</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -775,6 +780,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>även bladrosetter på 1 kvm</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,7 +811,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111416525</v>
+        <v>111416528</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -836,17 +846,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>blomning</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -855,10 +860,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>359095.1406046218</v>
+        <v>359092.1819271583</v>
       </c>
       <c r="R3" t="n">
-        <v>6393212.639220579</v>
+        <v>6393204.710604292</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -901,11 +906,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>även bladrosetter på 1 kvm</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -932,7 +932,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111416521</v>
+        <v>111416525</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -967,7 +967,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>359101.3469427949</v>
+        <v>359095.1406046218</v>
       </c>
       <c r="R4" t="n">
-        <v>6393205.997596246</v>
+        <v>6393212.639220579</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>även ca 30 bladrosetter</t>
+          <t>även bladrosetter på 1 kvm</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1194,7 +1194,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111416523</v>
+        <v>111416521</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1248,10 +1248,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>359100.0376043977</v>
+        <v>359101.3469427949</v>
       </c>
       <c r="R6" t="n">
-        <v>6393214.610374114</v>
+        <v>6393205.997596246</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>även bladrosetter på 1 kvm</t>
+          <t>även ca 30 bladrosetter</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 30671-2023.xlsx
+++ b/artfynd/A 30671-2023.xlsx
@@ -811,7 +811,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111416528</v>
+        <v>111416521</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -846,12 +846,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>blomning</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -860,10 +865,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>359092.1819271583</v>
+        <v>359101.3469427949</v>
       </c>
       <c r="R3" t="n">
-        <v>6393204.710604292</v>
+        <v>6393205.997596246</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,6 +911,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>även ca 30 bladrosetter</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -932,7 +942,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111416525</v>
+        <v>111416528</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -967,17 +977,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>blomning</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -986,10 +991,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>359095.1406046218</v>
+        <v>359092.1819271583</v>
       </c>
       <c r="R4" t="n">
-        <v>6393212.639220579</v>
+        <v>6393204.710604292</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1032,11 +1037,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>även bladrosetter på 1 kvm</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1194,7 +1194,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111416521</v>
+        <v>111416525</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1248,10 +1248,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>359101.3469427949</v>
+        <v>359095.1406046218</v>
       </c>
       <c r="R6" t="n">
-        <v>6393205.997596246</v>
+        <v>6393212.639220579</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>även ca 30 bladrosetter</t>
+          <t>även bladrosetter på 1 kvm</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 30671-2023.xlsx
+++ b/artfynd/A 30671-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111416523</v>
+        <v>111416525</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>359100.0376043977</v>
+        <v>359095.1406046218</v>
       </c>
       <c r="R2" t="n">
-        <v>6393214.610374114</v>
+        <v>6393212.639220579</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111416521</v>
+        <v>111416526</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>359101.3469427949</v>
+        <v>359094.3997885482</v>
       </c>
       <c r="R3" t="n">
-        <v>6393205.997596246</v>
+        <v>6393206.775113393</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111416528</v>
+        <v>111416521</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -977,12 +977,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>blomning</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -991,10 +996,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>359092.1819271583</v>
+        <v>359101.3469427949</v>
       </c>
       <c r="R4" t="n">
-        <v>6393204.710604292</v>
+        <v>6393205.997596246</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1037,6 +1042,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>även ca 30 bladrosetter</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1063,7 +1073,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111416526</v>
+        <v>111416528</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1098,17 +1108,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>blomning</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1117,10 +1122,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>359094.3997885482</v>
+        <v>359092.1819271583</v>
       </c>
       <c r="R5" t="n">
-        <v>6393206.775113393</v>
+        <v>6393204.710604292</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1163,11 +1168,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>även ca 30 bladrosetter</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1194,7 +1194,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111416525</v>
+        <v>111416523</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1248,10 +1248,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>359095.1406046218</v>
+        <v>359100.0376043977</v>
       </c>
       <c r="R6" t="n">
-        <v>6393212.639220579</v>
+        <v>6393214.610374114</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
